--- a/bin/resource/excel/attribute.xlsx
+++ b/bin/resource/excel/attribute.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opensource\ark_new\bin\resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ARK\bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F5339-CAF6-43EA-8D36-09F284B71B73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yangpengbo</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,8 +63,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="InitProperty" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="InitProperty" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\InitProperty.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -73,23 +74,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -186,11 +170,14 @@
     <t>最大魔法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>uint64</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,42 +538,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -595,54 +582,54 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200001</v>
       </c>
@@ -659,7 +646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200002</v>
       </c>
@@ -676,7 +663,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200003</v>
       </c>
@@ -693,7 +680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200004</v>
       </c>
@@ -710,7 +697,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200005</v>
       </c>
@@ -727,7 +714,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200006</v>
       </c>
@@ -744,7 +731,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>200007</v>
       </c>
@@ -761,7 +748,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200008</v>
       </c>
@@ -778,7 +765,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>200009</v>
       </c>
@@ -795,7 +782,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200010</v>
       </c>
@@ -812,7 +799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>200011</v>
       </c>
@@ -829,7 +816,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200012</v>
       </c>
@@ -846,7 +833,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>200013</v>
       </c>
@@ -863,7 +850,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200014</v>
       </c>
@@ -880,7 +867,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200015</v>
       </c>
@@ -897,7 +884,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200016</v>
       </c>
@@ -914,7 +901,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200017</v>
       </c>
@@ -931,7 +918,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200018</v>
       </c>
@@ -948,7 +935,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>200019</v>
       </c>
@@ -965,7 +952,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200020</v>
       </c>
@@ -982,7 +969,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>200021</v>
       </c>
@@ -999,7 +986,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>200022</v>
       </c>
@@ -1016,7 +1003,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>200023</v>
       </c>
@@ -1033,7 +1020,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200024</v>
       </c>
@@ -1050,7 +1037,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200025</v>
       </c>
@@ -1067,7 +1054,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200026</v>
       </c>
@@ -1084,7 +1071,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>200027</v>
       </c>
@@ -1101,7 +1088,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200028</v>
       </c>
@@ -1118,7 +1105,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200029</v>
       </c>
@@ -1135,7 +1122,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200030</v>
       </c>
@@ -1152,7 +1139,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>200031</v>
       </c>
@@ -1169,7 +1156,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>200032</v>
       </c>
@@ -1186,7 +1173,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>200033</v>
       </c>
@@ -1203,7 +1190,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200034</v>
       </c>
@@ -1220,7 +1207,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>200035</v>
       </c>
@@ -1237,7 +1224,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200036</v>
       </c>
@@ -1254,7 +1241,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>200037</v>
       </c>
@@ -1271,7 +1258,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200038</v>
       </c>
@@ -1288,7 +1275,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200039</v>
       </c>
@@ -1305,7 +1292,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>200040</v>
       </c>
@@ -1322,7 +1309,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>200041</v>
       </c>
@@ -1339,7 +1326,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200042</v>
       </c>
@@ -1356,7 +1343,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>200043</v>
       </c>
@@ -1373,7 +1360,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>200044</v>
       </c>
@@ -1390,7 +1377,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200045</v>
       </c>
@@ -1407,7 +1394,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200046</v>
       </c>
@@ -1424,7 +1411,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200047</v>
       </c>
@@ -1441,7 +1428,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200048</v>
       </c>
@@ -1458,7 +1445,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200049</v>
       </c>
@@ -1475,7 +1462,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>200050</v>
       </c>
@@ -1492,7 +1479,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>200051</v>
       </c>
@@ -1509,7 +1496,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>200052</v>
       </c>
@@ -1526,7 +1513,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>200053</v>
       </c>
@@ -1543,7 +1530,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>200054</v>
       </c>
@@ -1560,7 +1547,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>200055</v>
       </c>
@@ -1577,7 +1564,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>200056</v>
       </c>
@@ -1594,7 +1581,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>200057</v>
       </c>
@@ -1611,7 +1598,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>200058</v>
       </c>
@@ -1628,7 +1615,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>200059</v>
       </c>
@@ -1645,7 +1632,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>200060</v>
       </c>
